--- a/Time Tracking/Tran Bach Tong.xlsx
+++ b/Time Tracking/Tran Bach Tong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -46,20 +46,32 @@
   </si>
   <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Phân tích các chức năng cơ bản cho layout màn hình</t>
+  </si>
+  <si>
+    <t>Trần Bách Tông</t>
+  </si>
+  <si>
+    <t>T2A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -67,7 +79,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +87,7 @@
       <b/>
       <sz val="15"/>
       <color theme="4" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,7 +95,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,19 +251,23 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,16 +276,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,6 +365,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -382,6 +400,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,752 +576,766 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:6" ht="20.25" thickTop="1">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="6" t="s">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickTop="1">
-      <c r="B5" s="9" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="10"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="10"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>41163</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="10"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="10"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="10"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="10"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="10"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="10"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="10"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="10"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="10"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="10"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="10"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="10"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="10"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="10"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="10"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="10"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="10"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="10"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="10"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="10"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="10"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="5"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="10"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="10"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="5"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="10"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="10"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="5"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="10"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="10"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="10"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="10"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="10"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="10"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="10"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="10"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="10"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="5"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="10"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="10"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="10"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="10"/>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="10"/>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="10"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="10"/>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="10"/>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="10"/>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="10"/>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="10"/>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="10"/>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="10"/>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="10"/>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="10"/>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="10"/>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="10"/>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="10"/>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="10"/>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="10"/>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="10"/>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="10"/>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="10"/>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="10"/>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="10"/>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="10"/>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="10"/>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="10"/>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="10"/>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="10"/>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="10"/>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="10"/>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="10"/>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="10"/>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="10"/>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="10"/>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="10"/>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="10"/>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="10"/>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="10"/>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="10"/>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="10"/>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="10"/>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="10"/>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="10"/>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="10"/>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="10"/>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="10"/>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="10"/>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="10"/>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="10"/>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="10"/>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="10"/>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="10"/>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="10"/>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="10"/>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="10"/>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="10"/>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="10"/>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="10"/>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="10"/>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="10"/>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -1328,24 +1361,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Time Tracking/Tran Bach Tong.xlsx
+++ b/Time Tracking/Tran Bach Tong.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -61,17 +61,20 @@
   </si>
   <si>
     <t>T2A</t>
+  </si>
+  <si>
+    <t>Create nonfunction requirements for SRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,7 +90,7 @@
       <b/>
       <sz val="15"/>
       <color theme="4" tint="0.79998168889431442"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +98,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,7 +368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -400,7 +402,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,24 +577,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="63.25" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="20.25" thickTop="1">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -602,7 +603,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="21.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -617,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -628,7 +629,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" thickTop="1">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="5">
         <v>41163</v>
       </c>
@@ -662,679 +663,689 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="5"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
+      <c r="B19" s="5">
+        <v>41186</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="5"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="B24" s="5"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6">
       <c r="B28" s="5"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="B30" s="5"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="B31" s="5"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="B32" s="5"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="5"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="5"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="5"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6">
       <c r="B41" s="5"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6">
       <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6">
       <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6">
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6">
       <c r="B79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6">
       <c r="B80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6">
       <c r="B81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6">
       <c r="B82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6">
       <c r="B83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6">
       <c r="B84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6">
       <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6">
       <c r="B86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6">
       <c r="B87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6">
       <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6">
       <c r="B89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6">
       <c r="B90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6">
       <c r="B91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6">
       <c r="B92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6">
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6">
       <c r="B94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6">
       <c r="B95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6">
       <c r="B96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6">
       <c r="B97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6">
       <c r="B98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6">
       <c r="B99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6">
       <c r="B100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6">
       <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6">
       <c r="B102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6">
       <c r="B103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -1361,24 +1372,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Time Tracking/Tran Bach Tong.xlsx
+++ b/Time Tracking/Tran Bach Tong.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-15" yWindow="5715" windowWidth="28785" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -54,27 +54,93 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Phân tích các chức năng cơ bản cho layout màn hình</t>
-  </si>
-  <si>
     <t>Trần Bách Tông</t>
   </si>
   <si>
     <t>T2A</t>
   </si>
   <si>
-    <t>Create nonfunction requirements for SRS</t>
+    <t>Create Object</t>
+  </si>
+  <si>
+    <t>Create Milestone</t>
+  </si>
+  <si>
+    <t>Learn and understand requirement</t>
+  </si>
+  <si>
+    <t>Analysis SRS sample</t>
+  </si>
+  <si>
+    <t>DB Design document</t>
+  </si>
+  <si>
+    <t>Interface design document</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>Collection requirements</t>
+  </si>
+  <si>
+    <t>Analysis requirements</t>
+  </si>
+  <si>
+    <t>Remove requirement</t>
+  </si>
+  <si>
+    <t>Create System Features</t>
+  </si>
+  <si>
+    <t>Create External Interface Requirements</t>
+  </si>
+  <si>
+    <t>Create Other Nonfunctional Requirements</t>
+  </si>
+  <si>
+    <t>Create overview</t>
+  </si>
+  <si>
+    <t>Create style guide (2.1-2.3 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.4-2.7 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.8-2.10 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.11-2.13 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.14-2.16 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.17-2.18 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.19 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.20-2.21 in Design document)</t>
+  </si>
+  <si>
+    <t>Create style guide (2.22 in Design document)</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,7 +148,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -90,7 +156,7 @@
       <b/>
       <sz val="15"/>
       <color theme="4" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +345,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,6 +437,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -402,6 +472,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,24 +648,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:6" ht="20.25" thickTop="1">
+    <row r="1" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:54" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -603,22 +674,22 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="21.75" customHeight="1">
+    <row r="3" spans="1:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -629,7 +700,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickTop="1">
+    <row r="5" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -646,711 +717,2777 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="5">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
+        <v>41156</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
+        <v>41157</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>41159</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
+        <v>41160</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
+        <v>41161</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13">
+        <v>41162</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
         <v>41163</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
+        <v>41164</v>
+      </c>
+      <c r="C13" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="5">
-        <v>41186</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <v>41165</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <v>41166</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13">
+        <v>41169</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13">
+        <v>41170</v>
+      </c>
+      <c r="C17" s="11">
         <v>1.5</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F17" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="5"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="5"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="5"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="5"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="5"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="5"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="5"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="5"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="5"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="5"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="5"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="5"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
+        <v>41178</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
+        <v>41179</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <v>41180</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>41181</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>41182</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <v>41183</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
+        <v>41181</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13">
+        <v>41182</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13">
+        <v>41183</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
+        <v>41198</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13">
+        <v>41199</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13">
+        <v>41200</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
+        <v>41201</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
+        <v>41202</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13">
+        <v>41203</v>
+      </c>
+      <c r="C32" s="11">
+        <v>6</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13">
+        <v>41204</v>
+      </c>
+      <c r="C33" s="11">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13">
+        <v>41205</v>
+      </c>
+      <c r="C34" s="11">
+        <v>6</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13">
+        <v>41206</v>
+      </c>
+      <c r="C35" s="11">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13">
+        <v>41207</v>
+      </c>
+      <c r="C36" s="11">
+        <v>6</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13">
+        <v>41208</v>
+      </c>
+      <c r="C37" s="11">
+        <v>6</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13">
+        <v>41209</v>
+      </c>
+      <c r="C38" s="11">
+        <v>6</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13">
+        <v>41210</v>
+      </c>
+      <c r="C39" s="11">
+        <v>6</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13">
+        <v>41211</v>
+      </c>
+      <c r="C40" s="11">
+        <v>6</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="5"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="5"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="5"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1359,10 +3496,10 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E106">
       <formula1>"Requirement, Design, Code, Test, Deliver, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F106">
       <formula1>"Record, Report, Test case, Database, Product"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1372,24 +3509,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
